--- a/lesson_3/Lesson 03 Homework - LP3/data/transp_prob_1.xlsx
+++ b/lesson_3/Lesson 03 Homework - LP3/data/transp_prob_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10908"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Gdrive_snap_May_15/MS Data Science/DS 775/DS775_v2.0/Development _Version/C - Lesson 03 - LP 3/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ebolotin/Dropbox/techdev/uwl/775/lesson_3/Lesson 03 Homework - LP3/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62BD587F-CAEC-E744-844E-79DDC482E8DC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93CFAA19-B9F8-7B40-B064-78015FBBE04D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9520" yWindow="500" windowWidth="25040" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -596,8 +596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="183" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="183" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
